--- a/02-Projeto/01-ResolveAi/01-GRE/01-Produtos/08-Rastreabilidade.xlsx
+++ b/02-Projeto/01-ResolveAi/01-GRE/01-Produtos/08-Rastreabilidade.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="40">
   <si>
     <t>RFUN 1.1</t>
   </si>
@@ -233,11 +236,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -532,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AV32" sqref="AV32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +732,9 @@
       <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -738,7 +774,9 @@
       <c r="G4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -772,13 +810,17 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -816,7 +858,9 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -854,7 +898,9 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -896,7 +942,9 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -930,11 +978,15 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -968,11 +1020,17 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1006,11 +1064,17 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1044,8 +1108,12 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1082,11 +1150,17 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1120,11 +1194,17 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="L14" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1158,11 +1238,17 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1193,14 +1279,22 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1231,18 +1325,28 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="L17" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="P17" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -1269,18 +1373,28 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="P18" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -1310,11 +1424,17 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1348,11 +1468,17 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="H20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1386,11 +1512,17 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="H21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1398,7 +1530,9 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="T21" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
@@ -1414,17 +1548,21 @@
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1459,18 +1597,26 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="H23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="P23" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -1497,14 +1643,22 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="H24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1535,11 +1689,17 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="H25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1551,7 +1711,9 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
+      <c r="U25" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
@@ -1576,11 +1738,15 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="L26" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -1593,7 +1759,9 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
+      <c r="Y26" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
@@ -1614,11 +1782,15 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="H27" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="L27" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -1631,8 +1803,12 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
+      <c r="Y27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -1652,8 +1828,12 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="H28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -1690,12 +1870,18 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="L29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -1728,12 +1914,18 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="L30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -1749,7 +1941,9 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
+      <c r="AC30" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
@@ -1766,11 +1960,15 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="L31" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -1786,7 +1984,9 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
+      <c r="AB31" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
@@ -1804,7 +2004,9 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -1825,9 +2027,15 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
+      <c r="AC32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE32" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
@@ -1842,7 +2050,9 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -1863,10 +2073,18 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
+      <c r="AC33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF33" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
     </row>
@@ -1880,7 +2098,9 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -1902,10 +2122,18 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
+      <c r="AD34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG34" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="AH34" s="4"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
